--- a/front/src/assets/emptyTemplate_.xlsx
+++ b/front/src/assets/emptyTemplate_.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9F16A-12BD-0241-BA9F-9EA3B5CDADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B998F4D1-4B19-344E-BDF2-4F3841F53B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -172,17 +172,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -559,7 +584,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -570,39 +595,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -640,6 +665,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:H500">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEFT(A1,6)="Total "</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -656,24 +686,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -694,24 +724,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -732,24 +762,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -770,24 +800,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -808,24 +838,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -846,24 +876,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -884,24 +914,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -922,24 +952,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -960,24 +990,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -998,24 +1028,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1036,24 +1066,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1074,24 +1104,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1112,24 +1142,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1150,24 +1180,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1188,24 +1218,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1226,24 +1256,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1264,24 +1294,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1302,24 +1332,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1340,24 +1370,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1378,24 +1408,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1416,24 +1446,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1454,24 +1484,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1492,24 +1522,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1530,24 +1560,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1568,24 +1598,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1606,24 +1636,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1644,24 +1674,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1682,24 +1712,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1720,24 +1750,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1758,24 +1788,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1796,24 +1826,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1834,24 +1864,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1872,24 +1902,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1910,24 +1940,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1948,24 +1978,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1986,24 +2016,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2024,24 +2054,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2062,24 +2092,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2100,24 +2130,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2138,24 +2168,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2176,24 +2206,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2214,24 +2244,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2252,24 +2282,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2290,24 +2320,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2328,24 +2358,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2366,24 +2396,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2404,24 +2434,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2442,24 +2472,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2480,24 +2510,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
